--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -122,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -130,6 +136,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -434,7 +441,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,8 +545,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/RASD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>What</t>
   </si>
@@ -61,13 +74,19 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Complete revision</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +104,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -137,9 +163,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -152,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,12 +221,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -229,12 +256,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -438,21 +465,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="23" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -538,7 +565,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -548,17 +575,17 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -570,7 +597,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -590,7 +617,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -601,7 +628,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -620,7 +647,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -630,6 +657,14 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,7 +678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -655,7 +690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/RASD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>What</t>
   </si>
@@ -64,9 +56,6 @@
     <t>StateCharts</t>
   </si>
   <si>
-    <t>Matteo, Emilio*</t>
-  </si>
-  <si>
     <t>Use Case diagram</t>
   </si>
   <si>
@@ -80,6 +69,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Emilio*</t>
   </si>
 </sst>
 </file>
@@ -166,7 +158,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -221,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -256,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -465,16 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="23" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -587,7 +579,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -602,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -619,52 +611,73 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,7 +691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -690,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/RASD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -78,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +113,14 @@
       <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -156,9 +172,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -457,18 +475,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -496,7 +519,7 @@
       <c r="H1" s="1">
         <v>14</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="9">
         <v>15</v>
       </c>
       <c r="J1" s="1">
@@ -517,7 +540,7 @@
       <c r="O1" s="1">
         <v>21</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="9">
         <v>22</v>
       </c>
       <c r="Q1" s="1">
@@ -538,7 +561,7 @@
       <c r="V1" s="1">
         <v>28</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="9">
         <v>29</v>
       </c>
     </row>
@@ -584,10 +607,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -679,6 +702,29 @@
       </c>
       <c r="H11" s="3"/>
     </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -691,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -703,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiadifatta/Documents/GitHub/BiasielliCapoDifatta/RASD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -176,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -478,20 +470,20 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -640,17 +632,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -737,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,7 +741,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J6" sqref="J6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,14 +685,14 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -161,11 +161,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:N6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
       <c r="H1" s="1">
         <v>14</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>15</v>
       </c>
       <c r="J1" s="1">
@@ -532,7 +532,7 @@
       <c r="O1" s="1">
         <v>21</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="8">
         <v>22</v>
       </c>
       <c r="Q1" s="1">
@@ -553,7 +553,7 @@
       <c r="V1" s="1">
         <v>28</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="8">
         <v>29</v>
       </c>
     </row>
@@ -579,8 +579,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -589,8 +589,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -599,10 +599,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -632,17 +632,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -652,8 +652,8 @@
         <v>7</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -662,9 +662,9 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -692,30 +692,30 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>What</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Alloy</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Complete revision</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Emilio*</t>
+  </si>
+  <si>
+    <t>Software System Attributes</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +166,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -679,22 +680,35 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -702,9 +716,9 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="432" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>What</t>
   </si>
@@ -72,12 +72,15 @@
   </si>
   <si>
     <t>Software System Attributes</t>
+  </si>
+  <si>
+    <t>User Interfaces description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -167,6 +176,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -176,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,26 +481,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,22 +571,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -583,7 +597,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -593,7 +607,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -605,7 +619,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -613,19 +627,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -645,7 +659,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -656,7 +670,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -675,7 +689,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -693,7 +707,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -702,7 +716,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -731,6 +745,19 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
     </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -743,7 +770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -755,7 +782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="432" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>What</t>
   </si>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -175,7 +175,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -481,23 +480,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -627,13 +626,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -705,7 +704,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -730,9 +729,9 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -757,6 +756,15 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -770,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -782,7 +790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>What</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>User Interfaces description</t>
+  </si>
+  <si>
+    <t>Add flexible activities to alloy</t>
+  </si>
+  <si>
+    <t>Adjust BPMN diagrams EMILIO</t>
+  </si>
+  <si>
+    <t>Adjust Class Diagram</t>
+  </si>
+  <si>
+    <t>Minor decisions</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +156,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -175,7 +181,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -480,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,17 +631,17 @@
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -695,15 +700,15 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -751,11 +756,11 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -764,7 +769,59 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,11 +804,11 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,11 +778,11 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/RASD/GANTT.xlsx
+++ b/RASD/GANTT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>What</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Minor decisions</t>
+  </si>
+  <si>
+    <t>Group Meeting - Delivery</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,18 +166,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -485,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +525,7 @@
       <c r="H1" s="1">
         <v>14</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>15</v>
       </c>
       <c r="J1" s="1">
@@ -550,7 +546,7 @@
       <c r="O1" s="1">
         <v>21</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>22</v>
       </c>
       <c r="Q1" s="1">
@@ -571,7 +567,7 @@
       <c r="V1" s="1">
         <v>28</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="7">
         <v>29</v>
       </c>
     </row>
@@ -582,14 +578,14 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -598,18 +594,18 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -618,10 +614,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -631,17 +627,17 @@
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -651,17 +647,17 @@
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -670,9 +666,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -681,9 +677,9 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -700,15 +696,15 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -718,7 +714,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -727,27 +723,27 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -756,11 +752,11 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -769,7 +765,7 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -778,11 +774,11 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -791,37 +787,43 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
